--- a/working-files/Mala_Bibliography-Publications_2017-03-04.xlsx
+++ b/working-files/Mala_Bibliography-Publications_2017-03-04.xlsx
@@ -2430,7 +2430,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2489,11 +2489,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2794,7 +2795,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3108,7 +3109,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>666</v>
@@ -3131,7 +3132,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>667</v>
@@ -3154,7 +3155,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>669</v>
@@ -3177,168 +3178,195 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6">
-        <v>1913</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>543</v>
+        <v>1891</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>11</v>
+        <v>230</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>591</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>367</v>
+        <v>108</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>544</v>
+        <v>107</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>582</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L12" s="6" t="s">
+        <v>674</v>
+      </c>
       <c r="M12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="8">
-        <v>42776</v>
+        <v>42795</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>607</v>
+        <v>271</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>11</v>
+        <v>254</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>367</v>
+        <v>52</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>608</v>
+        <v>274</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L13" s="6" t="s">
+        <v>682</v>
+      </c>
       <c r="M13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N13" s="8">
-        <v>42777</v>
+        <v>42795</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>349</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>1915</v>
+        <v>1900</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>355</v>
+        <v>640</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>11</v>
+        <v>143</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>366</v>
+        <v>144</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N14" s="8">
-        <v>42774</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>327</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6">
-        <v>1889</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>75</v>
+        <v>1901</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>11</v>
+        <v>143</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>77</v>
+        <v>149</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N15" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>130</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>349</v>
+        <v>9</v>
       </c>
       <c r="C16" s="6">
-        <v>1919</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>363</v>
+        <v>1891</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>11</v>
+        <v>109</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>364</v>
+        <v>111</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>365</v>
+        <v>113</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>601</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>342</v>
@@ -3347,36 +3375,42 @@
         <v>20</v>
       </c>
       <c r="N16" s="8">
-        <v>42774</v>
+        <v>42769</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>327</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C17" s="6">
-        <v>1919</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>11</v>
+        <v>1874</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>364</v>
+        <v>111</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>413</v>
+        <v>318</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>596</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>342</v>
@@ -3385,34 +3419,38 @@
         <v>20</v>
       </c>
       <c r="N17" s="8">
-        <v>42774</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="12" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6">
-        <v>1920</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>395</v>
+        <v>1901</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H18" s="6"/>
+        <v>268</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="I18" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="J18" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>576</v>
+      </c>
       <c r="K18" s="6" t="s">
         <v>342</v>
       </c>
@@ -3421,70 +3459,76 @@
         <v>20</v>
       </c>
       <c r="N18" s="8">
-        <v>42774</v>
+        <v>42773</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="30">
       <c r="A19" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C19" s="6">
-        <v>1920</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>414</v>
+        <v>1908</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>615</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>11</v>
+        <v>612</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>142</v>
+        <v>616</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>415</v>
+        <v>617</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>618</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L19" s="6" t="s">
+        <v>708</v>
+      </c>
       <c r="M19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N19" s="8">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="30">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>1921</v>
+        <v>1897</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>490</v>
+        <v>249</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>711</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>342</v>
@@ -3493,33 +3537,36 @@
         <v>20</v>
       </c>
       <c r="N20" s="8">
-        <v>42776</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>491</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>339</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6">
-        <v>1924</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>360</v>
+        <v>1898</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>361</v>
+        <v>52</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>362</v>
+        <v>53</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>713</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>342</v>
@@ -3528,33 +3575,39 @@
         <v>20</v>
       </c>
       <c r="N21" s="8">
-        <v>42774</v>
+        <v>42769</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>327</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>339</v>
+        <v>9</v>
       </c>
       <c r="C22" s="6">
-        <v>1925</v>
+        <v>1898</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>358</v>
+        <v>23</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>359</v>
+        <v>252</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>714</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>342</v>
@@ -3563,33 +3616,36 @@
         <v>20</v>
       </c>
       <c r="N22" s="8">
-        <v>42774</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>327</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C23" s="6">
-        <v>1926</v>
+        <v>1900</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>345</v>
+        <v>262</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>346</v>
+        <v>45</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>347</v>
+        <v>19</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>716</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>342</v>
@@ -3598,36 +3654,36 @@
         <v>20</v>
       </c>
       <c r="N23" s="8">
-        <v>42774</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="30">
       <c r="A24" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C24" s="6">
-        <v>1928</v>
+        <v>1899</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>526</v>
+        <v>258</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>305</v>
+        <v>45</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>528</v>
+        <v>259</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>717</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>342</v>
@@ -3636,36 +3692,36 @@
         <v>20</v>
       </c>
       <c r="N24" s="8">
-        <v>42776</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>432</v>
+        <v>9</v>
       </c>
       <c r="C25" s="6">
-        <v>1929</v>
+        <v>1904</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>433</v>
+        <v>27</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>19</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>731</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>342</v>
@@ -3674,33 +3730,36 @@
         <v>20</v>
       </c>
       <c r="N25" s="8">
-        <v>42776</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>503</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6">
-        <v>1934</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>507</v>
+        <v>1905</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>508</v>
+        <v>37</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>510</v>
+        <v>734</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>342</v>
@@ -3709,35 +3768,40 @@
         <v>20</v>
       </c>
       <c r="N26" s="8">
-        <v>42776</v>
+        <v>42769</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="9" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>503</v>
+        <v>9</v>
       </c>
       <c r="C27" s="6">
-        <v>1936</v>
+        <v>1904</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="H27" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="I27" s="13" t="s">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>506</v>
+        <v>735</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>342</v>
@@ -3747,39 +3811,41 @@
         <v>20</v>
       </c>
       <c r="N27" s="8">
-        <v>42776</v>
-      </c>
-      <c r="O27" s="6"/>
+        <v>42769</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" s="9" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>466</v>
+        <v>32</v>
       </c>
       <c r="C28" s="6">
-        <v>1895</v>
+        <v>1904</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>467</v>
+        <v>36</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>468</v>
+        <v>37</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>469</v>
+        <v>38</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>470</v>
+        <v>736</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>342</v>
@@ -3789,73 +3855,78 @@
         <v>20</v>
       </c>
       <c r="N28" s="8">
-        <v>42776</v>
-      </c>
-      <c r="O28" s="6"/>
+        <v>42769</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="9">
-        <v>1865</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="22">
-        <v>42787</v>
-      </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
+        <v>693</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1905</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="8">
+        <v>42773</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>466</v>
+        <v>9</v>
       </c>
       <c r="C30" s="6">
-        <v>1886</v>
+        <v>1906</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>481</v>
+        <v>83</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>482</v>
+        <v>11</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>483</v>
+        <v>82</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>743</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>342</v>
@@ -3864,33 +3935,39 @@
         <v>20</v>
       </c>
       <c r="N30" s="8">
-        <v>42776</v>
+        <v>42769</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="3" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>492</v>
+        <v>70</v>
       </c>
       <c r="C31" s="6">
-        <v>1873</v>
+        <v>1906</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>494</v>
+        <v>69</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>495</v>
+        <v>71</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>496</v>
+        <v>72</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>497</v>
+        <v>747</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>342</v>
@@ -3899,10 +3976,10 @@
         <v>20</v>
       </c>
       <c r="N31" s="8">
-        <v>42776</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>498</v>
+        <v>42769</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3913,37 +3990,34 @@
         <v>9</v>
       </c>
       <c r="C32" s="6">
-        <v>1891</v>
+        <v>1907</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>591</v>
+        <v>11</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>582</v>
+        <v>748</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>674</v>
-      </c>
       <c r="M32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N32" s="8">
-        <v>42795</v>
+        <v>42769</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>130</v>
@@ -3957,83 +4031,83 @@
         <v>9</v>
       </c>
       <c r="C33" s="6">
-        <v>1901</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>271</v>
+        <v>1910</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>629</v>
+        <v>19</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>755</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>682</v>
-      </c>
       <c r="M33" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N33" s="8">
-        <v>42795</v>
+        <v>42769</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="6">
-        <v>1900</v>
+        <v>1919</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>640</v>
+        <v>302</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>146</v>
+        <v>306</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>574</v>
+        <v>307</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>587</v>
+        <v>342</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>687</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N34" s="8">
-        <v>42773</v>
+        <v>42795</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>9</v>
@@ -4042,7 +4116,7 @@
         <v>1901</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>143</v>
@@ -4054,7 +4128,7 @@
         <v>144</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>574</v>
@@ -4071,78 +4145,68 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="C36" s="6">
-        <v>1891</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>112</v>
+        <v>1980</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>601</v>
+        <v>119</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N36" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>130</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="9" customFormat="1">
       <c r="A37" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="C37" s="6">
-        <v>1874</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>116</v>
+        <v>1977</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>111</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>318</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="I37" s="13"/>
       <c r="J37" s="6" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6" t="s">
@@ -4156,420 +4220,404 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C38" s="6">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>270</v>
+        <v>487</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M38" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N38" s="8">
-        <v>42773</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="30">
+        <v>42776</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C39" s="6">
-        <v>1908</v>
+        <v>1896</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>618</v>
+        <v>488</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>486</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>708</v>
+        <v>326</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N39" s="8">
-        <v>42780</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C40" s="6">
         <v>1897</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>711</v>
+        <v>485</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>486</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N40" s="8">
-        <v>42773</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1898</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>713</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N41" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>130</v>
+        <v>694</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1959</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="22">
+        <v>42788</v>
+      </c>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="6">
-        <v>1898</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" s="8">
-        <v>42773</v>
+        <v>694</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1959</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="22">
+        <v>42788</v>
+      </c>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1900</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N43" s="8">
-        <v>42773</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="30">
+        <v>694</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1959</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="22">
+        <v>42788</v>
+      </c>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="6">
-        <v>1899</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>717</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N44" s="8">
-        <v>42773</v>
+        <v>694</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1959</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="15"/>
+      <c r="J44" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="22">
+        <v>42788</v>
+      </c>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="6">
-        <v>1904</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45" s="8">
-        <v>42773</v>
+        <v>694</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1959</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="22">
+        <v>42788</v>
+      </c>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="6">
-        <v>1905</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>130</v>
+        <v>694</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1959</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="22">
+        <v>42788</v>
+      </c>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="6">
-        <v>1904</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>342</v>
-      </c>
+        <v>1895</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
       <c r="M47" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N47" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>130</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C48" s="6">
-        <v>1904</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>11</v>
+        <v>1896</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>736</v>
+        <v>247</v>
+      </c>
+      <c r="J48" t="s">
+        <v>579</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>342</v>
@@ -4578,42 +4626,36 @@
         <v>20</v>
       </c>
       <c r="N48" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>130</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="6">
-        <v>1905</v>
+        <v>1911</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>11</v>
+        <v>292</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>342</v>
+        <v>650</v>
       </c>
       <c r="M49" s="6" t="s">
         <v>20</v>
@@ -4624,31 +4666,31 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="C50" s="6">
-        <v>1906</v>
+        <v>1874</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>11</v>
+        <v>116</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>743</v>
+        <v>597</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>342</v>
@@ -4665,31 +4707,25 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>70</v>
+        <v>503</v>
       </c>
       <c r="C51" s="6">
-        <v>1906</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>69</v>
+        <v>1911</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>511</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>72</v>
+        <v>512</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>747</v>
+        <v>513</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>342</v>
@@ -4698,80 +4734,68 @@
         <v>20</v>
       </c>
       <c r="N51" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>130</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="6">
-        <v>1907</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>10</v>
+        <v>1911</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>11</v>
+        <v>288</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N52" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>130</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C53" s="6">
-        <v>1910</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>16</v>
+        <v>1913</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>17</v>
+        <v>367</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>755</v>
+        <v>544</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>342</v>
@@ -4780,10 +4804,7 @@
         <v>20</v>
       </c>
       <c r="N53" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>130</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4794,37 +4815,31 @@
         <v>9</v>
       </c>
       <c r="C54" s="6">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>302</v>
+        <v>607</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>307</v>
+        <v>367</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>609</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>687</v>
-      </c>
       <c r="M54" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N54" s="8">
-        <v>42795</v>
+        <v>42777</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4832,37 +4847,34 @@
         <v>694</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>9</v>
+        <v>349</v>
       </c>
       <c r="C55" s="6">
-        <v>1901</v>
+        <v>1915</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>147</v>
+        <v>355</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>574</v>
+        <v>356</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>366</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>587</v>
+        <v>342</v>
       </c>
       <c r="M55" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N55" s="8">
-        <v>42773</v>
+        <v>42774</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4870,34 +4882,37 @@
         <v>694</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="C56" s="6">
-        <v>1980</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>192</v>
+        <v>1889</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>119</v>
+        <v>11</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>574</v>
+        <v>95</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>587</v>
+        <v>342</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N56" s="8">
-        <v>42773</v>
+        <v>42769</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4905,34 +4920,34 @@
         <v>694</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="C57" s="6">
-        <v>1977</v>
+        <v>1919</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>195</v>
+        <v>363</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>574</v>
+        <v>11</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>587</v>
+        <v>342</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N57" s="8">
-        <v>42773</v>
+        <v>42774</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4940,31 +4955,34 @@
         <v>694</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="C58" s="6">
-        <v>1895</v>
+        <v>1919</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>486</v>
+        <v>412</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>413</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N58" s="8">
-        <v>42776</v>
-      </c>
-      <c r="P58" s="6" t="s">
-        <v>572</v>
+        <v>42774</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4972,28 +4990,31 @@
         <v>694</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="C59" s="6">
-        <v>1896</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>486</v>
+        <v>1920</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>396</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="M59" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N59" s="8">
-        <v>42776</v>
+        <v>42774</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -5001,56 +5022,72 @@
         <v>694</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="C60" s="6">
-        <v>1897</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>486</v>
+        <v>1920</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>415</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N60" s="8">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="30">
       <c r="A61" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C61" s="6">
-        <v>1895</v>
+        <v>1921</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
+        <v>313</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="M61" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N61" s="8">
-        <v>42773</v>
+        <v>42776</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -5058,31 +5095,22 @@
         <v>694</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>9</v>
+        <v>339</v>
       </c>
       <c r="C62" s="6">
-        <v>1896</v>
+        <v>1924</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>246</v>
+        <v>360</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>173</v>
+        <v>361</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="J62" t="s">
-        <v>579</v>
+        <v>362</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>342</v>
@@ -5091,7 +5119,10 @@
         <v>20</v>
       </c>
       <c r="N62" s="8">
-        <v>42773</v>
+        <v>42774</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -5099,28 +5130,22 @@
         <v>694</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>115</v>
+        <v>339</v>
       </c>
       <c r="C63" s="6">
-        <v>1874</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>114</v>
+        <v>1925</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>111</v>
+        <v>358</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>597</v>
+        <v>359</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>342</v>
@@ -5129,10 +5154,10 @@
         <v>20</v>
       </c>
       <c r="N63" s="8">
-        <v>42769</v>
+        <v>42774</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>130</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -5140,22 +5165,22 @@
         <v>694</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>503</v>
+        <v>22</v>
       </c>
       <c r="C64" s="6">
-        <v>1911</v>
+        <v>1926</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>511</v>
+        <v>345</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>513</v>
+        <v>11</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>342</v>
@@ -5164,7 +5189,10 @@
         <v>20</v>
       </c>
       <c r="N64" s="8">
-        <v>42776</v>
+        <v>42774</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -5172,28 +5200,25 @@
         <v>694</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="C65" s="6">
-        <v>1870</v>
+        <v>1928</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>215</v>
+        <v>526</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="J65" s="19" t="s">
-        <v>628</v>
+        <v>527</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>342</v>
@@ -5202,10 +5227,7 @@
         <v>20</v>
       </c>
       <c r="N65" s="8">
-        <v>42773</v>
-      </c>
-      <c r="P65" s="6" t="s">
-        <v>709</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -5213,28 +5235,28 @@
         <v>694</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>204</v>
+        <v>432</v>
       </c>
       <c r="C66" s="6">
-        <v>1870</v>
+        <v>1929</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>215</v>
+        <v>167</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="J66" s="19" t="s">
-        <v>627</v>
+        <v>434</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>342</v>
@@ -5243,10 +5265,7 @@
         <v>20</v>
       </c>
       <c r="N66" s="8">
-        <v>42773</v>
-      </c>
-      <c r="P66" s="6" t="s">
-        <v>710</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5254,28 +5273,25 @@
         <v>694</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>59</v>
+        <v>503</v>
       </c>
       <c r="C67" s="6">
-        <v>1898</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>60</v>
+        <v>1934</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>507</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>84</v>
+        <v>508</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>712</v>
+        <v>509</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>510</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>342</v>
@@ -5284,10 +5300,7 @@
         <v>20</v>
       </c>
       <c r="N67" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>130</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5295,28 +5308,25 @@
         <v>694</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="C68" s="6">
-        <v>1898</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>479</v>
+        <v>1936</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>504</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>173</v>
+        <v>405</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>342</v>
@@ -5333,28 +5343,28 @@
         <v>694</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>22</v>
+        <v>466</v>
       </c>
       <c r="C69" s="6">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>21</v>
+        <v>467</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>23</v>
+        <v>468</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="19" t="s">
-        <v>715</v>
+        <v>469</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>342</v>
@@ -5363,92 +5373,80 @@
         <v>20</v>
       </c>
       <c r="N69" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O69" s="6" t="s">
-        <v>130</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C70" s="6">
-        <v>1899</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>565</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70" s="8">
-        <v>42776</v>
-      </c>
+      <c r="B70" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="9">
+        <v>1865</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="H70" s="9"/>
+      <c r="I70" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="22">
+        <v>42787</v>
+      </c>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>39</v>
+        <v>466</v>
       </c>
       <c r="C71" s="6">
-        <v>1900</v>
+        <v>1886</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>44</v>
+        <v>481</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>45</v>
+        <v>482</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>719</v>
+        <v>484</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L71" s="6" t="s">
-        <v>720</v>
-      </c>
       <c r="M71" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N71" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O71" s="6" t="s">
-        <v>130</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5456,28 +5454,25 @@
         <v>694</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C72" s="6">
-        <v>1899</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>11</v>
+        <v>1873</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>494</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>142</v>
+        <v>495</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>342</v>
@@ -5487,6 +5482,9 @@
       </c>
       <c r="N72" s="8">
         <v>42776</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5494,25 +5492,28 @@
         <v>694</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c r="C73" s="6">
-        <v>1900</v>
+        <v>1870</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>11</v>
+        <v>219</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>264</v>
+        <v>216</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>722</v>
+        <v>221</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>628</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>342</v>
@@ -5521,10 +5522,10 @@
         <v>20</v>
       </c>
       <c r="N73" s="8">
-        <v>42774</v>
-      </c>
-      <c r="O73" s="6" t="s">
-        <v>327</v>
+        <v>42773</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5532,40 +5533,40 @@
         <v>694</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c r="C74" s="6">
-        <v>1900</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>11</v>
+        <v>1870</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>264</v>
+        <v>216</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>724</v>
+        <v>218</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>627</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L74" s="6" t="s">
-        <v>723</v>
-      </c>
       <c r="M74" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N74" s="8">
-        <v>42774</v>
-      </c>
-      <c r="O74" s="6" t="s">
-        <v>327</v>
+        <v>42773</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5573,28 +5574,28 @@
         <v>694</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C75" s="6">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>726</v>
+        <v>61</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>712</v>
       </c>
       <c r="K75" s="6" t="s">
         <v>342</v>
@@ -5617,25 +5618,25 @@
         <v>466</v>
       </c>
       <c r="C76" s="6">
-        <v>1903</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>471</v>
+        <v>1898</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>479</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>472</v>
+        <v>173</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>474</v>
+        <v>443</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>480</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>342</v>
@@ -5652,28 +5653,28 @@
         <v>694</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C77" s="6">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J77" s="24" t="s">
-        <v>729</v>
+        <v>24</v>
+      </c>
+      <c r="J77" s="25" t="s">
+        <v>715</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>342</v>
@@ -5693,25 +5694,28 @@
         <v>694</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>378</v>
+        <v>563</v>
       </c>
       <c r="C78" s="6">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>380</v>
+        <v>564</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>381</v>
+        <v>565</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>733</v>
+        <v>566</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>342</v>
@@ -5720,7 +5724,7 @@
         <v>20</v>
       </c>
       <c r="N78" s="8">
-        <v>42774</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5728,31 +5732,34 @@
         <v>694</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C79" s="6">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I79" s="13">
-        <v>91</v>
-      </c>
-      <c r="J79" s="19" t="s">
-        <v>740</v>
+        <v>47</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>719</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>342</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>720</v>
       </c>
       <c r="M79" s="6" t="s">
         <v>20</v>
@@ -5769,28 +5776,28 @@
         <v>694</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>39</v>
+        <v>449</v>
       </c>
       <c r="C80" s="6">
-        <v>1905</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>48</v>
+        <v>1899</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>450</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J80" s="19" t="s">
-        <v>742</v>
+        <v>451</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>452</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>342</v>
@@ -5799,39 +5806,33 @@
         <v>20</v>
       </c>
       <c r="N80" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O80" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="C81" s="6">
-        <v>1907</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>73</v>
+        <v>1900</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="K81" s="6" t="s">
         <v>342</v>
@@ -5840,13 +5841,13 @@
         <v>20</v>
       </c>
       <c r="N81" s="8">
-        <v>42769</v>
+        <v>42774</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="3" t="s">
         <v>694</v>
       </c>
@@ -5854,25 +5855,28 @@
         <v>339</v>
       </c>
       <c r="C82" s="6">
-        <v>1906</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>351</v>
+        <v>1900</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="J82" s="18" t="s">
-        <v>746</v>
+        <v>354</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>724</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>342</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>723</v>
       </c>
       <c r="M82" s="6" t="s">
         <v>20</v>
@@ -5884,7 +5888,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:15">
       <c r="A83" s="3" t="s">
         <v>694</v>
       </c>
@@ -5892,22 +5896,25 @@
         <v>39</v>
       </c>
       <c r="C83" s="6">
-        <v>1907</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>532</v>
+        <v>1901</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>533</v>
+        <v>42</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>534</v>
+        <v>726</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>342</v>
@@ -5916,36 +5923,39 @@
         <v>20</v>
       </c>
       <c r="N83" s="8">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+        <v>42769</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>54</v>
+        <v>466</v>
       </c>
       <c r="C84" s="6">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>55</v>
+        <v>471</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>92</v>
+        <v>472</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>749</v>
+        <v>473</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>474</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>342</v>
@@ -5954,39 +5964,36 @@
         <v>20</v>
       </c>
       <c r="N84" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O84" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>466</v>
+        <v>63</v>
       </c>
       <c r="C85" s="6">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>475</v>
+        <v>62</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>478</v>
+        <v>86</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>477</v>
+        <v>49</v>
+      </c>
+      <c r="J85" s="26" t="s">
+        <v>729</v>
       </c>
       <c r="K85" s="6" t="s">
         <v>342</v>
@@ -5995,36 +6002,36 @@
         <v>20</v>
       </c>
       <c r="N85" s="8">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+        <v>42769</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="C86" s="6">
-        <v>1908</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>57</v>
+        <v>1903</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I86" s="13">
-        <v>56</v>
+        <v>27</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>381</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>342</v>
@@ -6033,39 +6040,36 @@
         <v>20</v>
       </c>
       <c r="N86" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O86" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C87" s="6">
-        <v>1911</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>521</v>
+        <v>1905</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>394</v>
+        <v>33</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>522</v>
+        <v>34</v>
+      </c>
+      <c r="I87" s="13">
+        <v>91</v>
+      </c>
+      <c r="J87" s="19" t="s">
+        <v>740</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>342</v>
@@ -6074,33 +6078,39 @@
         <v>20</v>
       </c>
       <c r="N87" s="8">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+        <v>42769</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C88" s="6">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>393</v>
+        <v>48</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>394</v>
+        <v>33</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J88" s="19" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>342</v>
@@ -6109,33 +6119,39 @@
         <v>20</v>
       </c>
       <c r="N88" s="8">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+        <v>42769</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C89" s="6">
-        <v>1911</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>529</v>
+        <v>1907</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>530</v>
+        <v>74</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>531</v>
+        <v>744</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>342</v>
@@ -6144,36 +6160,36 @@
         <v>20</v>
       </c>
       <c r="N89" s="8">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+        <v>42769</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="45">
       <c r="A90" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>454</v>
+        <v>339</v>
       </c>
       <c r="C90" s="6">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>453</v>
+        <v>351</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>456</v>
+        <v>352</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>746</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>342</v>
@@ -6182,10 +6198,13 @@
         <v>20</v>
       </c>
       <c r="N90" s="8">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+        <v>42774</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="3" t="s">
         <v>694</v>
       </c>
@@ -6193,22 +6212,22 @@
         <v>39</v>
       </c>
       <c r="C91" s="6">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>458</v>
+        <v>13</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>451</v>
+        <v>533</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>342</v>
@@ -6220,162 +6239,156 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:15">
       <c r="A92" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C92" s="6">
-        <v>1901</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>567</v>
+        <v>1907</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>591</v>
+        <v>11</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>568</v>
+        <v>13</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>570</v>
+        <v>56</v>
+      </c>
+      <c r="J92" s="19" t="s">
+        <v>749</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L92" s="6" t="s">
-        <v>676</v>
-      </c>
       <c r="M92" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N92" s="8">
-        <v>42795</v>
-      </c>
-      <c r="P92" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="34.5" customHeight="1">
+        <v>42769</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="34.5" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>96</v>
+        <v>466</v>
       </c>
       <c r="C93" s="6">
-        <v>1839</v>
+        <v>1908</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>98</v>
+        <v>58</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>478</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>101</v>
+        <v>476</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>634</v>
+        <v>477</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L93" s="6" t="s">
-        <v>689</v>
-      </c>
       <c r="M93" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N93" s="8">
-        <v>42795</v>
-      </c>
-      <c r="O93" s="6" t="s">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1908</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I94" s="13">
+        <v>56</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94" s="8">
+        <v>42769</v>
+      </c>
+      <c r="O94" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="P93" s="6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="A94" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C94" s="6">
-        <v>1914</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L94" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="M94" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N94" s="8">
-        <v>42795</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="C95" s="6">
         <v>1911</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>256</v>
+        <v>428</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>368</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="M95" s="6" t="s">
         <v>20</v>
@@ -6383,204 +6396,180 @@
       <c r="N95" s="8">
         <v>42776</v>
       </c>
-      <c r="P95" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="C96" s="6">
-        <v>1886</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>141</v>
+        <v>1911</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>574</v>
+        <v>394</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J96" s="19" t="s">
+        <v>757</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>587</v>
+        <v>342</v>
       </c>
       <c r="M96" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N96" s="8">
-        <v>42773</v>
+        <v>42774</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="C97" s="6">
-        <v>1951</v>
+        <v>1911</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>185</v>
+        <v>529</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>187</v>
+        <v>11</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>530</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>574</v>
+        <v>531</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>703</v>
+        <v>342</v>
       </c>
       <c r="M97" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N97" s="8">
-        <v>42773</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>119</v>
+        <v>454</v>
       </c>
       <c r="C98" s="6">
-        <v>1928</v>
+        <v>1912</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>170</v>
+        <v>220</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>455</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>587</v>
+        <v>342</v>
       </c>
       <c r="M98" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N98" s="8">
-        <v>42773</v>
-      </c>
-      <c r="P98" s="6" t="s">
-        <v>183</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="C99" s="6">
-        <v>1991</v>
+        <v>1912</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>237</v>
+        <v>545</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>159</v>
+        <v>458</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>162</v>
+        <v>451</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>598</v>
+        <v>546</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="M99" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N99" s="8">
-        <v>42773</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C100" s="6">
-        <v>1900</v>
+        <v>1928</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>535</v>
+        <v>624</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>537</v>
+        <v>626</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>536</v>
+        <v>71</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M100" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N100" s="8">
-        <v>42776</v>
+        <v>42783</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6588,37 +6577,43 @@
         <v>697</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C101" s="6">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>621</v>
+        <v>567</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>622</v>
+        <v>230</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>296</v>
+        <v>591</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>111</v>
+        <v>568</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>569</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>623</v>
+        <v>570</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L101" s="6" t="s">
+        <v>676</v>
+      </c>
       <c r="M101" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N101" s="8">
-        <v>42780</v>
+        <v>42795</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>648</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6626,38 +6621,46 @@
         <v>697</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C102" s="6">
-        <v>1922</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>295</v>
+        <v>1839</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J102" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="K102" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="L102" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>689</v>
+      </c>
       <c r="M102" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N102" s="8">
-        <v>42773</v>
+        <v>42795</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6665,37 +6668,34 @@
         <v>697</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>204</v>
+        <v>548</v>
       </c>
       <c r="C103" s="6">
-        <v>1864</v>
+        <v>1914</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>225</v>
+        <v>547</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>228</v>
+        <v>550</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>551</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>595</v>
+        <v>549</v>
       </c>
       <c r="K103" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L103" s="6" t="s">
+        <v>690</v>
+      </c>
       <c r="M103" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N103" s="8">
-        <v>42777</v>
+        <v>42795</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6703,37 +6703,40 @@
         <v>697</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C104" s="6">
-        <v>1915</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>404</v>
+        <v>1911</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="J104" s="11" t="s">
-        <v>408</v>
+        <v>256</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M104" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N104" s="8">
-        <v>42774</v>
+        <v>42776</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6741,40 +6744,37 @@
         <v>697</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>440</v>
+        <v>140</v>
       </c>
       <c r="C105" s="6">
-        <v>1927</v>
+        <v>1886</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>439</v>
+        <v>141</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>404</v>
+        <v>143</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>441</v>
+        <v>111</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="J105" s="19" t="s">
-        <v>707</v>
+        <v>142</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="M105" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N105" s="8">
-        <v>42776</v>
-      </c>
-      <c r="P105" s="6" t="s">
-        <v>444</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6782,37 +6782,37 @@
         <v>697</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="C106" s="6">
-        <v>1913</v>
+        <v>1951</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>611</v>
+        <v>185</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>361</v>
+        <v>186</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="J106" s="21" t="s">
-        <v>610</v>
+        <v>187</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>342</v>
+        <v>587</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>703</v>
       </c>
       <c r="M106" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N106" s="8">
-        <v>42780</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6820,34 +6820,37 @@
         <v>697</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C107" s="6">
-        <v>1900</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>523</v>
+        <v>1928</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>11</v>
+        <v>182</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>524</v>
+        <v>111</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="M107" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N107" s="8">
-        <v>42776</v>
+        <v>42773</v>
+      </c>
+      <c r="P107" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6855,34 +6858,40 @@
         <v>697</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>553</v>
+        <v>155</v>
       </c>
       <c r="C108" s="6">
-        <v>1902</v>
+        <v>1991</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>552</v>
+        <v>237</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>11</v>
+        <v>157</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>64</v>
+        <v>158</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>554</v>
+        <v>162</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>555</v>
+        <v>598</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M108" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N108" s="8">
-        <v>42776</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6890,31 +6899,34 @@
         <v>697</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>553</v>
+        <v>102</v>
       </c>
       <c r="C109" s="6">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>11</v>
+        <v>404</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>537</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="L109" s="6" t="s">
-        <v>728</v>
       </c>
       <c r="M109" s="6" t="s">
         <v>20</v>
@@ -6928,28 +6940,25 @@
         <v>697</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C110" s="6">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>518</v>
+        <v>621</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>11</v>
+        <v>622</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I110" s="13" t="s">
-        <v>519</v>
+        <v>111</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>520</v>
+        <v>623</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>342</v>
@@ -6958,7 +6967,10 @@
         <v>20</v>
       </c>
       <c r="N110" s="8">
-        <v>42776</v>
+        <v>42780</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6966,37 +6978,38 @@
         <v>697</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>349</v>
+        <v>9</v>
       </c>
       <c r="C111" s="6">
-        <v>1909</v>
+        <v>1922</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>11</v>
+        <v>299</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I111" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>342</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="L111" s="11"/>
       <c r="M111" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N111" s="8">
-        <v>42774</v>
-      </c>
-      <c r="O111" s="6" t="s">
-        <v>327</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7004,25 +7017,28 @@
         <v>697</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c r="C112" s="6">
-        <v>1910</v>
+        <v>1864</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>18</v>
+        <v>594</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>756</v>
+        <v>595</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>342</v>
@@ -7031,10 +7047,7 @@
         <v>20</v>
       </c>
       <c r="N112" s="8">
-        <v>42774</v>
-      </c>
-      <c r="O112" s="6" t="s">
-        <v>327</v>
+        <v>42777</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7042,25 +7055,28 @@
         <v>697</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C113" s="6">
-        <v>1910</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>11</v>
+        <v>1915</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>404</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>394</v>
+        <v>405</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>542</v>
+        <v>407</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>342</v>
@@ -7069,7 +7085,7 @@
         <v>20</v>
       </c>
       <c r="N113" s="8">
-        <v>42776</v>
+        <v>42774</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7077,28 +7093,28 @@
         <v>697</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C114" s="6">
-        <v>1912</v>
+        <v>1927</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>67</v>
+        <v>441</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
+      </c>
+      <c r="J114" s="19" t="s">
+        <v>707</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>342</v>
@@ -7108,6 +7124,9 @@
       </c>
       <c r="N114" s="8">
         <v>42776</v>
+      </c>
+      <c r="P114" s="6" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7115,28 +7134,28 @@
         <v>697</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>454</v>
+        <v>9</v>
       </c>
       <c r="C115" s="6">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>457</v>
+        <v>611</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>11</v>
+        <v>612</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>458</v>
+        <v>361</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>173</v>
+        <v>613</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="J115" s="6" t="s">
-        <v>460</v>
+        <v>614</v>
+      </c>
+      <c r="J115" s="21" t="s">
+        <v>610</v>
       </c>
       <c r="K115" s="6" t="s">
         <v>342</v>
@@ -7145,7 +7164,7 @@
         <v>20</v>
       </c>
       <c r="N115" s="8">
-        <v>42776</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7153,25 +7172,25 @@
         <v>697</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="C116" s="6">
-        <v>1914</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>313</v>
+        <v>1900</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>523</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>367</v>
+        <v>264</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>368</v>
+        <v>524</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>759</v>
+        <v>525</v>
       </c>
       <c r="K116" s="6" t="s">
         <v>342</v>
@@ -7180,405 +7199,381 @@
         <v>20</v>
       </c>
       <c r="N116" s="8">
-        <v>42774</v>
-      </c>
-      <c r="O116" s="6" t="s">
-        <v>327</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="3" t="s">
-        <v>234</v>
+        <v>697</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>204</v>
+        <v>553</v>
       </c>
       <c r="C117" s="6">
-        <v>1865</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>211</v>
+        <v>1902</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>552</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>591</v>
+        <v>11</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>210</v>
+        <v>554</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="K117" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L117" s="6" t="s">
-        <v>671</v>
-      </c>
       <c r="M117" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N117" s="8">
-        <v>42795</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="3" t="s">
-        <v>234</v>
+        <v>697</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>204</v>
+        <v>553</v>
       </c>
       <c r="C118" s="6">
-        <v>1865</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>209</v>
+        <v>1903</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>556</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>591</v>
+        <v>11</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>208</v>
+        <v>557</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="K118" s="6" t="s">
         <v>342</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>670</v>
+        <v>728</v>
       </c>
       <c r="M118" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N118" s="8">
-        <v>42773</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="3" t="s">
-        <v>234</v>
+        <v>697</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="C119" s="6">
-        <v>1951</v>
+        <v>1902</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>198</v>
+        <v>518</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>119</v>
+        <v>11</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>199</v>
+        <v>170</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>519</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>574</v>
+        <v>520</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>587</v>
+        <v>342</v>
       </c>
       <c r="M119" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N119" s="8">
-        <v>42773</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="3" t="s">
-        <v>234</v>
+        <v>697</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>119</v>
+        <v>349</v>
       </c>
       <c r="C120" s="6">
-        <v>1896</v>
+        <v>1909</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>445</v>
+        <v>348</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>119</v>
+        <v>11</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>447</v>
+        <v>350</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>448</v>
+        <v>752</v>
       </c>
       <c r="K120" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L120" s="6" t="s">
-        <v>704</v>
-      </c>
       <c r="M120" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N120" s="8">
-        <v>42776</v>
-      </c>
-      <c r="P120" s="6" t="s">
-        <v>705</v>
+        <v>42774</v>
+      </c>
+      <c r="O120" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N121" s="22">
-        <v>42787</v>
-      </c>
-      <c r="O121" s="9"/>
-      <c r="P121" s="9" t="s">
-        <v>652</v>
+        <v>697</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C121" s="6">
+        <v>1910</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N121" s="8">
+        <v>42774</v>
+      </c>
+      <c r="O121" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N122" s="22">
-        <v>42788</v>
-      </c>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9" t="s">
-        <v>654</v>
+        <v>697</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="6">
+        <v>1910</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N122" s="8">
+        <v>42776</v>
       </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="3" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>204</v>
+        <v>426</v>
       </c>
       <c r="C123" s="6">
-        <v>1864</v>
+        <v>1912</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>229</v>
+        <v>427</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>591</v>
+        <v>11</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>146</v>
+        <v>428</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J123" s="19" t="s">
-        <v>581</v>
+        <v>429</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="K123" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L123" s="6" t="s">
-        <v>673</v>
-      </c>
       <c r="M123" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N123" s="8">
-        <v>42795</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="3" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>22</v>
+        <v>454</v>
       </c>
       <c r="C124" s="6">
-        <v>1905</v>
+        <v>1912</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>559</v>
+        <v>457</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>591</v>
+        <v>11</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>385</v>
+        <v>458</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>561</v>
+        <v>459</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>560</v>
+        <v>460</v>
       </c>
       <c r="K124" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L124" s="6" t="s">
-        <v>678</v>
-      </c>
       <c r="M124" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N124" s="8">
-        <v>42795</v>
-      </c>
-      <c r="P124" s="6" t="s">
-        <v>562</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="3" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="C125" s="6">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>591</v>
+        <v>11</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="J125" s="19" t="s">
-        <v>586</v>
+        <v>368</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>759</v>
       </c>
       <c r="K125" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L125" s="6" t="s">
-        <v>680</v>
-      </c>
       <c r="M125" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N125" s="8">
-        <v>42795</v>
+        <v>42774</v>
+      </c>
+      <c r="O125" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="3" t="s">
-        <v>695</v>
+        <v>234</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="C126" s="6">
-        <v>1904</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>277</v>
+        <v>1865</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>255</v>
+        <v>591</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="K126" s="6" t="s">
         <v>342</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="M126" s="6" t="s">
         <v>20</v>
@@ -7589,345 +7584,315 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="3" t="s">
-        <v>695</v>
+        <v>234</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="C127" s="6">
-        <v>1905</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>281</v>
+        <v>1865</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>255</v>
+        <v>591</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
       <c r="K127" s="6" t="s">
         <v>342</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="M127" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N127" s="8">
-        <v>42795</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="3" t="s">
-        <v>695</v>
+        <v>234</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="C128" s="6">
-        <v>1906</v>
+        <v>1951</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I128" s="13" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>633</v>
+        <v>574</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L128" s="6" t="s">
-        <v>685</v>
+        <v>587</v>
       </c>
       <c r="M128" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N128" s="8">
-        <v>42795</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="3" t="s">
-        <v>695</v>
+        <v>234</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C129" s="6">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>253</v>
+        <v>445</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>254</v>
+        <v>446</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>257</v>
+        <v>447</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>630</v>
+        <v>448</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>342</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="M129" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N129" s="8">
-        <v>42795</v>
+        <v>42776</v>
       </c>
       <c r="P129" s="6" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="3" t="s">
-        <v>695</v>
+        <v>234</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" s="9">
-        <v>1898</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>602</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I130" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="J130" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K130" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M130" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N130" s="8">
-        <v>42773</v>
-      </c>
-      <c r="O130" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="P130" s="9"/>
+        <v>647</v>
+      </c>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N130" s="22">
+        <v>42787</v>
+      </c>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="3" t="s">
-        <v>695</v>
+        <v>234</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="9">
-        <v>1902</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>603</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I131" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J131" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K131" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M131" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N131" s="8">
-        <v>42773</v>
-      </c>
-      <c r="O131" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="P131" s="9"/>
+        <v>653</v>
+      </c>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N131" s="22">
+        <v>42788</v>
+      </c>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="3" t="s">
         <v>695</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C132" s="6">
-        <v>1980</v>
+        <v>1864</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>119</v>
+        <v>591</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>574</v>
+        <v>146</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J132" s="19" t="s">
+        <v>581</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>587</v>
+        <v>342</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>673</v>
       </c>
       <c r="M132" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N132" s="8">
-        <v>42773</v>
+        <v>42795</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>9</v>
+      <c r="B133" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C133" s="6">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>132</v>
+        <v>559</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J133" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K133" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="L133" s="11"/>
+        <v>591</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I133" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>678</v>
+      </c>
       <c r="M133" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N133" s="8">
-        <v>42773</v>
-      </c>
-      <c r="O133" s="6" t="s">
-        <v>130</v>
+        <v>42795</v>
+      </c>
+      <c r="P133" s="6" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>124</v>
+      <c r="B134" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C134" s="6">
+        <v>1909</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>125</v>
+        <v>420</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>153</v>
+        <v>591</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>128</v>
+        <v>421</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>577</v>
+        <v>422</v>
+      </c>
+      <c r="J134" s="19" t="s">
+        <v>586</v>
       </c>
       <c r="K134" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L134" s="6" t="s">
+        <v>680</v>
+      </c>
       <c r="M134" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N134" s="8">
-        <v>42773</v>
-      </c>
-      <c r="O134" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P134" s="6" t="s">
-        <v>651</v>
+        <v>42795</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7938,37 +7903,40 @@
         <v>9</v>
       </c>
       <c r="C135" s="6">
-        <v>1911</v>
+        <v>1904</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>578</v>
+        <v>631</v>
       </c>
       <c r="K135" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L135" s="6" t="s">
+        <v>683</v>
+      </c>
       <c r="M135" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N135" s="8">
-        <v>42773</v>
+        <v>42795</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7976,28 +7944,43 @@
         <v>695</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>370</v>
+        <v>9</v>
       </c>
       <c r="C136" s="6">
-        <v>1903</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>369</v>
+        <v>1905</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="J136" s="11" t="s">
-        <v>372</v>
+        <v>255</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>632</v>
       </c>
       <c r="K136" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L136" s="6" t="s">
+        <v>684</v>
+      </c>
       <c r="M136" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N136" s="8">
-        <v>42774</v>
+        <v>42795</v>
       </c>
     </row>
     <row r="137" spans="1:16" s="12" customFormat="1">
@@ -8005,33 +7988,43 @@
         <v>695</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>370</v>
+        <v>9</v>
       </c>
       <c r="C137" s="6">
-        <v>1908</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E137" s="6"/>
+        <v>1906</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="F137" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="11" t="s">
-        <v>372</v>
+        <v>255</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="K137" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L137" s="6"/>
+      <c r="L137" s="6" t="s">
+        <v>685</v>
+      </c>
       <c r="M137" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N137" s="8">
-        <v>42774</v>
+        <v>42795</v>
       </c>
       <c r="O137" s="6"/>
       <c r="P137" s="6"/>
@@ -8044,63 +8037,75 @@
         <v>9</v>
       </c>
       <c r="C138" s="6">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>11</v>
+        <v>254</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>256</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>718</v>
+        <v>630</v>
       </c>
       <c r="K138" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L138" s="6" t="s">
+        <v>686</v>
+      </c>
       <c r="M138" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N138" s="8">
-        <v>42773</v>
+        <v>42795</v>
+      </c>
+      <c r="P138" s="6" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="6">
-        <v>1900</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I139" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="J139" s="6" t="s">
-        <v>721</v>
+      <c r="C139" s="9">
+        <v>1898</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I139" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J139" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="K139" s="6" t="s">
         <v>342</v>
@@ -8111,31 +8116,41 @@
       <c r="N139" s="8">
         <v>42773</v>
       </c>
+      <c r="O139" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P139" s="9"/>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="6">
-        <v>1900</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="I140" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="J140" s="19" t="s">
-        <v>725</v>
+      <c r="C140" s="9">
+        <v>1902</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I140" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J140" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="K140" s="6" t="s">
         <v>342</v>
@@ -8144,39 +8159,40 @@
         <v>20</v>
       </c>
       <c r="N140" s="8">
-        <v>42780</v>
-      </c>
+        <v>42773</v>
+      </c>
+      <c r="O140" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P140" s="9"/>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="3" t="s">
         <v>695</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="C141" s="6">
-        <v>1903</v>
+        <v>1980</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>64</v>
+        <v>186</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I141" s="13" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>727</v>
+        <v>574</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="M141" s="6" t="s">
         <v>20</v>
@@ -8185,65 +8201,72 @@
         <v>42773</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="45">
+    <row r="142" spans="1:16">
       <c r="A142" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>378</v>
+      <c r="B142" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C142" s="6">
-        <v>1903</v>
+        <v>1911</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I142" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="J142" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="K142" s="6" t="s">
-        <v>342</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="L142" s="11"/>
       <c r="M142" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N142" s="8">
-        <v>42774</v>
+        <v>42773</v>
+      </c>
+      <c r="O142" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C143" s="6">
-        <v>1904</v>
+      <c r="B143" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>382</v>
+        <v>125</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>11</v>
+        <v>126</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>383</v>
+        <v>127</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>739</v>
+        <v>577</v>
       </c>
       <c r="K143" s="6" t="s">
         <v>342</v>
@@ -8252,7 +8275,13 @@
         <v>20</v>
       </c>
       <c r="N143" s="8">
-        <v>42774</v>
+        <v>42773</v>
+      </c>
+      <c r="O143" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="P143" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8260,25 +8289,31 @@
         <v>695</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C144" s="6">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>391</v>
+        <v>154</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>11</v>
+        <v>126</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>58</v>
+        <v>151</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="J144" s="19" t="s">
-        <v>751</v>
+        <v>152</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>578</v>
       </c>
       <c r="K144" s="6" t="s">
         <v>342</v>
@@ -8287,595 +8322,603 @@
         <v>20</v>
       </c>
       <c r="N144" s="8">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="3" t="s">
         <v>695</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C145" s="6">
+        <v>1903</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N145" s="8">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C146" s="6">
+        <v>1908</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N146" s="8">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="17.25" customHeight="1">
+      <c r="A147" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C147" s="6">
+        <v>1899</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I147" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N147" s="8">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="6">
+        <v>1900</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I148" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M148" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N148" s="8">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="6">
+        <v>1900</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="I149" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="J149" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M149" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N149" s="8">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="6">
+        <v>1903</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I150" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N150" s="8">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="45">
+      <c r="A151" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C151" s="6">
+        <v>1903</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I151" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="J151" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M151" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N151" s="8">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C152" s="6">
+        <v>1904</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I152" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M152" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N152" s="8">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C153" s="6">
         <v>1909</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D153" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I153" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="J153" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N153" s="8">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="6">
+        <v>1909</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E154" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G145" s="6" t="s">
+      <c r="G154" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H145" s="6" t="s">
+      <c r="H154" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="I145" s="13" t="s">
+      <c r="I154" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="J145" s="6" t="s">
+      <c r="J154" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="K145" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M145" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N145" s="8">
+      <c r="K154" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N154" s="8">
         <v>42773</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
-      <c r="A146" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C146" s="6">
-        <v>1863</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I146" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="J146" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="K146" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L146" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="M146" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N146" s="8">
-        <v>42795</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A147" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C147" s="6">
-        <v>1900</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I147" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="J147" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="K147" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L147" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="M147" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N147" s="8">
-        <v>42795</v>
-      </c>
-      <c r="O147" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
-      <c r="A148" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C148" s="6">
-        <v>1905</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="I148" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="J148" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="K148" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L148" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="M148" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N148" s="8">
-        <v>42795</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16">
-      <c r="A149" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C149" s="6">
-        <v>1909</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I149" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="J149" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="K149" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L149" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="M149" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N149" s="8">
-        <v>42795</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
-      <c r="A150" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C150" s="6">
-        <v>1855</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J150" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="K150" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L150" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="M150" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N150" s="8">
-        <v>42795</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
-      <c r="A151" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C151" s="6">
-        <v>1902</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I151" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="K151" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L151" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="M151" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N151" s="8">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16">
-      <c r="A152" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C152" s="6">
-        <v>1895</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J152" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="K152" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="M152" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N152" s="8">
-        <v>42773</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16">
-      <c r="A153" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C153" s="6">
-        <v>1939</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G153" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="J153" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="K153" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M153" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N153" s="8">
-        <v>42777</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16">
-      <c r="A154" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C154" s="6">
-        <v>1915</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="J154" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="K154" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="M154" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N154" s="8">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:15">
       <c r="A155" s="3" t="s">
         <v>696</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C155" s="6">
-        <v>1874</v>
+        <v>1863</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>319</v>
+        <v>230</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="J155" s="11" t="s">
-        <v>316</v>
+        <v>591</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I155" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J155" s="19" t="s">
+        <v>580</v>
       </c>
       <c r="K155" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L155" s="6" t="s">
+        <v>672</v>
+      </c>
       <c r="M155" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N155" s="8">
-        <v>42773</v>
-      </c>
-      <c r="P155" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="3" t="s">
         <v>696</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C156" s="6">
-        <v>1851</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>239</v>
+        <v>1900</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="J156" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
+        <v>591</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I156" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J156" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="K156" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L156" s="6" t="s">
+        <v>675</v>
+      </c>
       <c r="M156" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N156" s="8">
-        <v>42773</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16">
+        <v>42795</v>
+      </c>
+      <c r="O156" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="3" t="s">
         <v>696</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="C157" s="6">
-        <v>1853</v>
+        <v>1905</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>241</v>
+        <v>384</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="J157" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="K157" s="16"/>
-      <c r="L157" s="16"/>
+        <v>591</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I157" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="J157" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="K157" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L157" s="6" t="s">
+        <v>677</v>
+      </c>
       <c r="M157" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N157" s="8">
-        <v>42773</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="3" t="s">
         <v>696</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="C158" s="6">
-        <v>1904</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>29</v>
+        <v>1909</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>11</v>
+        <v>230</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>591</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H158" s="6" t="s">
-        <v>26</v>
+        <v>388</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>30</v>
+        <v>389</v>
       </c>
       <c r="J158" s="19" t="s">
-        <v>732</v>
+        <v>585</v>
       </c>
       <c r="K158" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L158" s="6" t="s">
+        <v>679</v>
+      </c>
       <c r="M158" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N158" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O158" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="3" t="s">
         <v>696</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="C159" s="6">
-        <v>1904</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>397</v>
+        <v>1855</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>11</v>
+        <v>230</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>591</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I159" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>737</v>
+        <v>128</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="K159" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L159" s="6" t="s">
+        <v>681</v>
+      </c>
       <c r="M159" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N159" s="8">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="3" t="s">
         <v>696</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>378</v>
+        <v>454</v>
       </c>
       <c r="C160" s="6">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>377</v>
+        <v>461</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>11</v>
+        <v>463</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>464</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="I160" s="13" t="s">
-        <v>379</v>
+        <v>465</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>738</v>
+        <v>462</v>
       </c>
       <c r="K160" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="L160" s="6" t="s">
+        <v>702</v>
+      </c>
       <c r="M160" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N160" s="8">
-        <v>42774</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -8883,34 +8926,37 @@
         <v>696</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C161" s="6">
-        <v>1906</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>401</v>
+        <v>1895</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>11</v>
+        <v>143</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I161" s="13" t="s">
-        <v>402</v>
+        <v>144</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>745</v>
+        <v>574</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="M161" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N161" s="8">
-        <v>42774</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -8918,25 +8964,25 @@
         <v>696</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C162" s="6">
-        <v>1907</v>
+        <v>1939</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>399</v>
+        <v>604</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>11</v>
+        <v>165</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I162" s="13" t="s">
-        <v>400</v>
+        <v>605</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>750</v>
+        <v>606</v>
       </c>
       <c r="K162" s="6" t="s">
         <v>342</v>
@@ -8945,7 +8991,7 @@
         <v>20</v>
       </c>
       <c r="N162" s="8">
-        <v>42774</v>
+        <v>42777</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -8953,28 +8999,19 @@
         <v>696</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>66</v>
+        <v>370</v>
       </c>
       <c r="C163" s="6">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I163" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J163" s="6" t="s">
-        <v>758</v>
+        <v>374</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="J163" s="16" t="s">
+        <v>376</v>
       </c>
       <c r="K163" s="6" t="s">
         <v>342</v>
@@ -8983,182 +9020,173 @@
         <v>20</v>
       </c>
       <c r="N163" s="8">
-        <v>42769</v>
-      </c>
-      <c r="O163" s="6" t="s">
-        <v>130</v>
+        <v>42774</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="3" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>436</v>
+        <v>115</v>
       </c>
       <c r="C164" s="6">
-        <v>1973</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>435</v>
+        <v>1874</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="J164" s="6" t="s">
-        <v>573</v>
+        <v>317</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="M164" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N164" s="8">
-        <v>42776</v>
+        <v>42773</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>438</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="1:16">
-      <c r="A165" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="B165" s="9" t="s">
+      <c r="A165" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C165" s="9">
-        <v>1866</v>
-      </c>
-      <c r="D165" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="E165" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G165" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H165" s="9"/>
-      <c r="I165" s="15"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="L165" s="9"/>
-      <c r="M165" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N165" s="22">
+      <c r="C165" s="6">
+        <v>1851</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J165" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N165" s="8">
         <v>42773</v>
-      </c>
-      <c r="O165" s="9"/>
-      <c r="P165" s="9" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="3" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="C166" s="6">
-        <v>1868</v>
+        <v>1853</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I166" s="13" t="s">
-        <v>136</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="J166" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="K166" s="16"/>
+      <c r="L166" s="16"/>
       <c r="M166" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N166" s="8">
         <v>42773</v>
       </c>
-      <c r="P166" s="6" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="167" spans="1:16" s="9" customFormat="1">
       <c r="A167" s="3" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="C167" s="6">
-        <v>1880</v>
+        <v>1904</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="E167" s="6"/>
-      <c r="F167" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="13"/>
-      <c r="J167" s="6" t="s">
-        <v>589</v>
+        <v>29</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I167" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J167" s="19" t="s">
+        <v>732</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="L167" s="6"/>
       <c r="M167" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N167" s="8">
-        <v>42773</v>
-      </c>
-      <c r="O167" s="6"/>
-      <c r="P167" s="6" t="s">
-        <v>590</v>
-      </c>
+        <v>42769</v>
+      </c>
+      <c r="O167" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="P167" s="6"/>
     </row>
     <row r="168" spans="1:16" s="9" customFormat="1">
       <c r="A168" s="3" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C168" s="6">
-        <v>1885</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G168" s="6"/>
+        <v>1904</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H168" s="6"/>
-      <c r="I168" s="13"/>
+      <c r="I168" s="13" t="s">
+        <v>398</v>
+      </c>
       <c r="J168" s="6" t="s">
-        <v>411</v>
+        <v>737</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="L168" s="6"/>
       <c r="M168" s="6" t="s">
@@ -9172,71 +9200,73 @@
     </row>
     <row r="169" spans="1:16" s="9" customFormat="1">
       <c r="A169" s="3" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>163</v>
+        <v>378</v>
       </c>
       <c r="C169" s="6">
-        <v>1992</v>
+        <v>1904</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>164</v>
+        <v>377</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>156</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F169" s="6"/>
       <c r="G169" s="6" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="H169" s="6"/>
-      <c r="I169" s="13">
-        <v>194</v>
+      <c r="I169" s="13" t="s">
+        <v>379</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>599</v>
+        <v>738</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="L169" s="6"/>
       <c r="M169" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N169" s="8">
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="O169" s="6"/>
       <c r="P169" s="6"/>
     </row>
     <row r="170" spans="1:16" s="9" customFormat="1">
       <c r="A170" s="3" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>416</v>
+        <v>54</v>
       </c>
       <c r="C170" s="6">
-        <v>1885</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="G170" s="6"/>
+        <v>1906</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="H170" s="6"/>
-      <c r="I170" s="13"/>
+      <c r="I170" s="13" t="s">
+        <v>402</v>
+      </c>
       <c r="J170" s="6" t="s">
-        <v>411</v>
+        <v>745</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="L170" s="6"/>
       <c r="M170" s="6" t="s">
@@ -9250,153 +9280,151 @@
     </row>
     <row r="171" spans="1:16" s="9" customFormat="1">
       <c r="A171" s="3" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>514</v>
+        <v>54</v>
+      </c>
+      <c r="C171" s="6">
+        <v>1907</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>515</v>
+        <v>399</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G171" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" s="6"/>
-      <c r="I171" s="13"/>
+      <c r="I171" s="13" t="s">
+        <v>400</v>
+      </c>
       <c r="J171" s="6" t="s">
-        <v>517</v>
+        <v>750</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="L171" s="6"/>
       <c r="M171" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N171" s="8">
-        <v>42776</v>
+        <v>42774</v>
       </c>
       <c r="O171" s="6"/>
       <c r="P171" s="6"/>
     </row>
     <row r="172" spans="1:16" s="9" customFormat="1">
       <c r="A172" s="3" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>323</v>
+        <v>66</v>
       </c>
       <c r="C172" s="6">
-        <v>1875</v>
+        <v>1912</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>322</v>
+        <v>65</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I172" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="J172" s="6" t="s">
-        <v>329</v>
+        <v>758</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="L172" s="6"/>
       <c r="M172" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N172" s="8">
-        <v>42774</v>
+        <v>42769</v>
       </c>
       <c r="O172" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="P172" s="6" t="s">
-        <v>328</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P172" s="6"/>
     </row>
     <row r="173" spans="1:16" s="12" customFormat="1">
       <c r="A173" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C173" s="9">
-        <v>1959</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F173" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G173" s="9"/>
-      <c r="H173" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="I173" s="15"/>
-      <c r="J173" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="K173" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C173" s="6">
+        <v>1973</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="K173" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="L173" s="9"/>
-      <c r="M173" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N173" s="22">
-        <v>42788</v>
-      </c>
-      <c r="O173" s="9"/>
-      <c r="P173" s="9" t="s">
-        <v>655</v>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N173" s="8">
+        <v>42776</v>
+      </c>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="174" spans="1:16" s="12" customFormat="1">
-      <c r="A174" s="3" t="s">
-        <v>638</v>
+      <c r="A174" s="17" t="s">
+        <v>641</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C174" s="9">
-        <v>1959</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>172</v>
+        <v>1866</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E174" s="23" t="s">
+        <v>213</v>
       </c>
       <c r="F174" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9" t="s">
-        <v>142</v>
-      </c>
+      <c r="G174" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H174" s="9"/>
       <c r="I174" s="15"/>
-      <c r="J174" s="9" t="s">
-        <v>657</v>
-      </c>
+      <c r="J174" s="9"/>
       <c r="K174" s="9" t="s">
         <v>326</v>
       </c>
@@ -9405,260 +9433,246 @@
         <v>20</v>
       </c>
       <c r="N174" s="22">
-        <v>42788</v>
+        <v>42773</v>
       </c>
       <c r="O174" s="9"/>
       <c r="P174" s="9" t="s">
-        <v>655</v>
+        <v>600</v>
       </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C175" s="9">
-        <v>1959</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F175" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C175" s="6">
+        <v>1868</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F175" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I175" s="15"/>
-      <c r="J175" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="K175" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="L175" s="9"/>
-      <c r="M175" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N175" s="22">
-        <v>42788</v>
-      </c>
-      <c r="O175" s="9"/>
-      <c r="P175" s="9" t="s">
-        <v>655</v>
+      <c r="G175" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M175" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N175" s="8">
+        <v>42773</v>
+      </c>
+      <c r="P175" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="176" spans="1:16" s="9" customFormat="1">
       <c r="A176" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C176" s="9">
-        <v>1959</v>
-      </c>
-      <c r="D176" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F176" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H176" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I176" s="15"/>
-      <c r="J176" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="K176" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C176" s="6">
+        <v>1880</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E176" s="6"/>
+      <c r="F176" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="K176" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M176" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N176" s="22">
-        <v>42788</v>
-      </c>
-      <c r="P176" s="9" t="s">
-        <v>655</v>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N176" s="8">
+        <v>42773</v>
+      </c>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="177" spans="1:16" s="9" customFormat="1">
       <c r="A177" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C177" s="9">
-        <v>1959</v>
-      </c>
-      <c r="D177" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F177" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H177" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I177" s="15"/>
-      <c r="J177" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="K177" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="M177" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N177" s="22">
-        <v>42788</v>
-      </c>
-      <c r="P177" s="9" t="s">
-        <v>655</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" s="6">
+        <v>1885</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N177" s="8">
+        <v>42774</v>
+      </c>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
     </row>
     <row r="178" spans="1:16" s="9" customFormat="1">
       <c r="A178" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C178" s="9">
-        <v>1959</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F178" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H178" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I178" s="15"/>
-      <c r="J178" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="K178" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C178" s="6">
+        <v>1992</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H178" s="6"/>
+      <c r="I178" s="13">
+        <v>194</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="K178" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M178" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N178" s="22">
-        <v>42788</v>
-      </c>
-      <c r="P178" s="9" t="s">
-        <v>655</v>
-      </c>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N178" s="8">
+        <v>42773</v>
+      </c>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
     </row>
     <row r="179" spans="1:16">
       <c r="A179" s="3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>9</v>
+        <v>416</v>
       </c>
       <c r="C179" s="6">
-        <v>1911</v>
+        <v>1885</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="H179" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I179" s="13" t="s">
-        <v>650</v>
+        <v>418</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="M179" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N179" s="8">
-        <v>42773</v>
+        <v>42774</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" s="3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C180" s="6">
-        <v>1911</v>
+        <v>503</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>514</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>287</v>
+        <v>515</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>288</v>
+        <v>516</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H180" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I180" s="13" t="s">
-        <v>290</v>
+        <v>242</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K180" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="M180" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N180" s="8">
-        <v>42773</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" s="3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>9</v>
+        <v>323</v>
       </c>
       <c r="C181" s="6">
-        <v>1928</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>624</v>
+        <v>1875</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>71</v>
+        <v>324</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="K181" s="6" t="s">
         <v>326</v>
@@ -9667,10 +9681,13 @@
         <v>20</v>
       </c>
       <c r="N181" s="8">
-        <v>42783</v>
+        <v>42774</v>
+      </c>
+      <c r="O181" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="P181" s="6" t="s">
-        <v>625</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -9684,45 +9701,45 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J130" r:id="rId1" tooltip="DOI"/>
-    <hyperlink ref="J131" r:id="rId2" tooltip="DOI"/>
-    <hyperlink ref="J133" r:id="rId3" tooltip="DOI"/>
-    <hyperlink ref="J150" r:id="rId4" tooltip="DOI"/>
-    <hyperlink ref="J156" r:id="rId5" tooltip="DOI"/>
-    <hyperlink ref="J157" r:id="rId6"/>
-    <hyperlink ref="J102" r:id="rId7" tooltip="DOI"/>
-    <hyperlink ref="J61" r:id="rId8" tooltip="DOI"/>
-    <hyperlink ref="J155" r:id="rId9" tooltip="DOI"/>
-    <hyperlink ref="J136" r:id="rId10" tooltip="DOI"/>
-    <hyperlink ref="J137" r:id="rId11" tooltip="DOI"/>
-    <hyperlink ref="J154" r:id="rId12"/>
-    <hyperlink ref="J104" r:id="rId13" tooltip="DOI"/>
-    <hyperlink ref="J146" r:id="rId14"/>
-    <hyperlink ref="J123" r:id="rId15"/>
-    <hyperlink ref="J32" r:id="rId16"/>
-    <hyperlink ref="J147" r:id="rId17"/>
-    <hyperlink ref="J148" r:id="rId18"/>
-    <hyperlink ref="J149" r:id="rId19"/>
-    <hyperlink ref="J125" r:id="rId20"/>
-    <hyperlink ref="J13" r:id="rId21"/>
-    <hyperlink ref="J66" r:id="rId22"/>
-    <hyperlink ref="J65" r:id="rId23"/>
-    <hyperlink ref="J33" r:id="rId24"/>
-    <hyperlink ref="J29" r:id="rId25"/>
-    <hyperlink ref="J105" r:id="rId26"/>
-    <hyperlink ref="J40" r:id="rId27"/>
-    <hyperlink ref="J67" r:id="rId28"/>
-    <hyperlink ref="J41" r:id="rId29"/>
-    <hyperlink ref="J69" r:id="rId30"/>
-    <hyperlink ref="J44" r:id="rId31"/>
-    <hyperlink ref="J140" r:id="rId32"/>
-    <hyperlink ref="J158" r:id="rId33"/>
-    <hyperlink ref="J79" r:id="rId34"/>
-    <hyperlink ref="J80" r:id="rId35"/>
-    <hyperlink ref="J52" r:id="rId36"/>
-    <hyperlink ref="J84" r:id="rId37"/>
-    <hyperlink ref="J144" r:id="rId38"/>
-    <hyperlink ref="J88" r:id="rId39"/>
+    <hyperlink ref="J139" r:id="rId1" tooltip="DOI"/>
+    <hyperlink ref="J140" r:id="rId2" tooltip="DOI"/>
+    <hyperlink ref="J142" r:id="rId3" tooltip="DOI"/>
+    <hyperlink ref="J159" r:id="rId4" tooltip="DOI"/>
+    <hyperlink ref="J165" r:id="rId5" tooltip="DOI"/>
+    <hyperlink ref="J166" r:id="rId6"/>
+    <hyperlink ref="J111" r:id="rId7" tooltip="DOI"/>
+    <hyperlink ref="J47" r:id="rId8" tooltip="DOI"/>
+    <hyperlink ref="J164" r:id="rId9" tooltip="DOI"/>
+    <hyperlink ref="J145" r:id="rId10" tooltip="DOI"/>
+    <hyperlink ref="J146" r:id="rId11" tooltip="DOI"/>
+    <hyperlink ref="J163" r:id="rId12"/>
+    <hyperlink ref="J113" r:id="rId13" tooltip="DOI"/>
+    <hyperlink ref="J155" r:id="rId14"/>
+    <hyperlink ref="J132" r:id="rId15"/>
+    <hyperlink ref="J12" r:id="rId16"/>
+    <hyperlink ref="J156" r:id="rId17"/>
+    <hyperlink ref="J157" r:id="rId18"/>
+    <hyperlink ref="J158" r:id="rId19"/>
+    <hyperlink ref="J134" r:id="rId20"/>
+    <hyperlink ref="J54" r:id="rId21"/>
+    <hyperlink ref="J74" r:id="rId22"/>
+    <hyperlink ref="J73" r:id="rId23"/>
+    <hyperlink ref="J13" r:id="rId24"/>
+    <hyperlink ref="J70" r:id="rId25"/>
+    <hyperlink ref="J114" r:id="rId26"/>
+    <hyperlink ref="J20" r:id="rId27"/>
+    <hyperlink ref="J75" r:id="rId28"/>
+    <hyperlink ref="J21" r:id="rId29"/>
+    <hyperlink ref="J77" r:id="rId30"/>
+    <hyperlink ref="J24" r:id="rId31"/>
+    <hyperlink ref="J149" r:id="rId32"/>
+    <hyperlink ref="J167" r:id="rId33"/>
+    <hyperlink ref="J87" r:id="rId34"/>
+    <hyperlink ref="J88" r:id="rId35"/>
+    <hyperlink ref="J32" r:id="rId36"/>
+    <hyperlink ref="J92" r:id="rId37"/>
+    <hyperlink ref="J153" r:id="rId38"/>
+    <hyperlink ref="J96" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId40"/>
